--- a/At Risk SKUs.xlsx
+++ b/At Risk SKUs.xlsx
@@ -70,6 +70,9 @@
     <t>75293</t>
   </si>
   <si>
+    <t>75294</t>
+  </si>
+  <si>
     <t>75295</t>
   </si>
   <si>
@@ -94,1039 +97,1036 @@
     <t>C00308R1</t>
   </si>
   <si>
+    <t>C00315R1</t>
+  </si>
+  <si>
     <t>C00358R1</t>
   </si>
   <si>
+    <t>C00362R1</t>
+  </si>
+  <si>
+    <t>C01618</t>
+  </si>
+  <si>
+    <t>C01621</t>
+  </si>
+  <si>
+    <t>C01625</t>
+  </si>
+  <si>
+    <t>C01626</t>
+  </si>
+  <si>
+    <t>C01628</t>
+  </si>
+  <si>
+    <t>C01721</t>
+  </si>
+  <si>
+    <t>C01722</t>
+  </si>
+  <si>
+    <t>C01729</t>
+  </si>
+  <si>
+    <t>C01731</t>
+  </si>
+  <si>
+    <t>C01954</t>
+  </si>
+  <si>
+    <t>C01956</t>
+  </si>
+  <si>
+    <t>C01957</t>
+  </si>
+  <si>
+    <t>C02014</t>
+  </si>
+  <si>
+    <t>C02089</t>
+  </si>
+  <si>
+    <t>C02090</t>
+  </si>
+  <si>
+    <t>C02091</t>
+  </si>
+  <si>
+    <t>C02092</t>
+  </si>
+  <si>
+    <t>C02304</t>
+  </si>
+  <si>
+    <t>C02362</t>
+  </si>
+  <si>
+    <t>C02363</t>
+  </si>
+  <si>
+    <t>C02365</t>
+  </si>
+  <si>
+    <t>C02368</t>
+  </si>
+  <si>
+    <t>C02502</t>
+  </si>
+  <si>
+    <t>C02504</t>
+  </si>
+  <si>
+    <t>C02605</t>
+  </si>
+  <si>
+    <t>C02611</t>
+  </si>
+  <si>
+    <t>C02612</t>
+  </si>
+  <si>
+    <t>C02613</t>
+  </si>
+  <si>
+    <t>C02752</t>
+  </si>
+  <si>
+    <t>C02918</t>
+  </si>
+  <si>
+    <t>C03076</t>
+  </si>
+  <si>
+    <t>C03102</t>
+  </si>
+  <si>
+    <t>C03213</t>
+  </si>
+  <si>
+    <t>C03215</t>
+  </si>
+  <si>
+    <t>C03216</t>
+  </si>
+  <si>
+    <t>C03217</t>
+  </si>
+  <si>
+    <t>C03246</t>
+  </si>
+  <si>
+    <t>C03249</t>
+  </si>
+  <si>
+    <t>C03250</t>
+  </si>
+  <si>
+    <t>C03320</t>
+  </si>
+  <si>
+    <t>C03321</t>
+  </si>
+  <si>
+    <t>C03405</t>
+  </si>
+  <si>
+    <t>C03406</t>
+  </si>
+  <si>
+    <t>C03407</t>
+  </si>
+  <si>
+    <t>C03408</t>
+  </si>
+  <si>
+    <t>C03409</t>
+  </si>
+  <si>
+    <t>C03411</t>
+  </si>
+  <si>
+    <t>C03457</t>
+  </si>
+  <si>
+    <t>C03458</t>
+  </si>
+  <si>
+    <t>C03459</t>
+  </si>
+  <si>
+    <t>C03460</t>
+  </si>
+  <si>
+    <t>C03588</t>
+  </si>
+  <si>
+    <t>C03589</t>
+  </si>
+  <si>
+    <t>C03590</t>
+  </si>
+  <si>
+    <t>C03591</t>
+  </si>
+  <si>
+    <t>C03592</t>
+  </si>
+  <si>
+    <t>C03593</t>
+  </si>
+  <si>
+    <t>C03594</t>
+  </si>
+  <si>
+    <t>C03595</t>
+  </si>
+  <si>
+    <t>C03596</t>
+  </si>
+  <si>
+    <t>C03597</t>
+  </si>
+  <si>
+    <t>C03598</t>
+  </si>
+  <si>
+    <t>C03599</t>
+  </si>
+  <si>
+    <t>C03600</t>
+  </si>
+  <si>
+    <t>C03601</t>
+  </si>
+  <si>
+    <t>C03602</t>
+  </si>
+  <si>
+    <t>C03603</t>
+  </si>
+  <si>
+    <t>C03665</t>
+  </si>
+  <si>
+    <t>C03666</t>
+  </si>
+  <si>
+    <t>C03667</t>
+  </si>
+  <si>
+    <t>C03668</t>
+  </si>
+  <si>
+    <t>C03669</t>
+  </si>
+  <si>
+    <t>C03721</t>
+  </si>
+  <si>
+    <t>C03722</t>
+  </si>
+  <si>
+    <t>C03723</t>
+  </si>
+  <si>
+    <t>C03724</t>
+  </si>
+  <si>
+    <t>C03725</t>
+  </si>
+  <si>
+    <t>C03726</t>
+  </si>
+  <si>
+    <t>C03727</t>
+  </si>
+  <si>
+    <t>C03760</t>
+  </si>
+  <si>
+    <t>C03761</t>
+  </si>
+  <si>
+    <t>C03762</t>
+  </si>
+  <si>
+    <t>C03763</t>
+  </si>
+  <si>
+    <t>C03764</t>
+  </si>
+  <si>
+    <t>C03765</t>
+  </si>
+  <si>
+    <t>C03766</t>
+  </si>
+  <si>
+    <t>C03767</t>
+  </si>
+  <si>
+    <t>C03768</t>
+  </si>
+  <si>
+    <t>C03769</t>
+  </si>
+  <si>
+    <t>C03770</t>
+  </si>
+  <si>
+    <t>C03771</t>
+  </si>
+  <si>
+    <t>C03772</t>
+  </si>
+  <si>
+    <t>C03773</t>
+  </si>
+  <si>
+    <t>C03774</t>
+  </si>
+  <si>
+    <t>C03775</t>
+  </si>
+  <si>
+    <t>C03776</t>
+  </si>
+  <si>
+    <t>C03777</t>
+  </si>
+  <si>
+    <t>C03778</t>
+  </si>
+  <si>
+    <t>C03779</t>
+  </si>
+  <si>
+    <t>C03780</t>
+  </si>
+  <si>
+    <t>C03781</t>
+  </si>
+  <si>
+    <t>C03782</t>
+  </si>
+  <si>
+    <t>C03783</t>
+  </si>
+  <si>
+    <t>C03784</t>
+  </si>
+  <si>
+    <t>C03785</t>
+  </si>
+  <si>
+    <t>C03786</t>
+  </si>
+  <si>
+    <t>C03787</t>
+  </si>
+  <si>
+    <t>C03788</t>
+  </si>
+  <si>
+    <t>C03789</t>
+  </si>
+  <si>
+    <t>C03790</t>
+  </si>
+  <si>
+    <t>C03791</t>
+  </si>
+  <si>
+    <t>C03792</t>
+  </si>
+  <si>
+    <t>C03793</t>
+  </si>
+  <si>
+    <t>C03794</t>
+  </si>
+  <si>
+    <t>C03795</t>
+  </si>
+  <si>
+    <t>C03796</t>
+  </si>
+  <si>
+    <t>C03797</t>
+  </si>
+  <si>
+    <t>C03798</t>
+  </si>
+  <si>
+    <t>C03800</t>
+  </si>
+  <si>
+    <t>C03801</t>
+  </si>
+  <si>
+    <t>C03803</t>
+  </si>
+  <si>
+    <t>C03804</t>
+  </si>
+  <si>
+    <t>C03806</t>
+  </si>
+  <si>
+    <t>C03807</t>
+  </si>
+  <si>
+    <t>C03808</t>
+  </si>
+  <si>
+    <t>C03809</t>
+  </si>
+  <si>
+    <t>C03810</t>
+  </si>
+  <si>
+    <t>C03811</t>
+  </si>
+  <si>
+    <t>C03812</t>
+  </si>
+  <si>
+    <t>C03813</t>
+  </si>
+  <si>
+    <t>C03814</t>
+  </si>
+  <si>
+    <t>C03815</t>
+  </si>
+  <si>
+    <t>C03816</t>
+  </si>
+  <si>
+    <t>C03817</t>
+  </si>
+  <si>
+    <t>C03818</t>
+  </si>
+  <si>
+    <t>C03819</t>
+  </si>
+  <si>
+    <t>C03820</t>
+  </si>
+  <si>
+    <t>C03821</t>
+  </si>
+  <si>
+    <t>C03822</t>
+  </si>
+  <si>
+    <t>C03823</t>
+  </si>
+  <si>
+    <t>C03824</t>
+  </si>
+  <si>
+    <t>C03825</t>
+  </si>
+  <si>
+    <t>C03826</t>
+  </si>
+  <si>
+    <t>C03827</t>
+  </si>
+  <si>
+    <t>C03828</t>
+  </si>
+  <si>
+    <t>C03829</t>
+  </si>
+  <si>
+    <t>C03830</t>
+  </si>
+  <si>
+    <t>C03831</t>
+  </si>
+  <si>
+    <t>C03874</t>
+  </si>
+  <si>
+    <t>C03875</t>
+  </si>
+  <si>
+    <t>C03876</t>
+  </si>
+  <si>
+    <t>C03894</t>
+  </si>
+  <si>
+    <t>C03921</t>
+  </si>
+  <si>
+    <t>C03922</t>
+  </si>
+  <si>
+    <t>C03923</t>
+  </si>
+  <si>
+    <t>C03924</t>
+  </si>
+  <si>
+    <t>C03925</t>
+  </si>
+  <si>
+    <t>C03930</t>
+  </si>
+  <si>
+    <t>C03931</t>
+  </si>
+  <si>
+    <t>C03932</t>
+  </si>
+  <si>
+    <t>C03955W</t>
+  </si>
+  <si>
+    <t>C03959</t>
+  </si>
+  <si>
+    <t>C03960</t>
+  </si>
+  <si>
+    <t>C03961</t>
+  </si>
+  <si>
+    <t>C03962</t>
+  </si>
+  <si>
+    <t>C03963</t>
+  </si>
+  <si>
+    <t>C03964</t>
+  </si>
+  <si>
+    <t>C03965</t>
+  </si>
+  <si>
+    <t>C03966</t>
+  </si>
+  <si>
+    <t>C03967</t>
+  </si>
+  <si>
+    <t>C04007</t>
+  </si>
+  <si>
+    <t>C04008</t>
+  </si>
+  <si>
+    <t>C04009</t>
+  </si>
+  <si>
+    <t>C04010</t>
+  </si>
+  <si>
+    <t>C04011</t>
+  </si>
+  <si>
+    <t>C04012</t>
+  </si>
+  <si>
+    <t>C04260</t>
+  </si>
+  <si>
+    <t>C04262</t>
+  </si>
+  <si>
+    <t>C04263</t>
+  </si>
+  <si>
+    <t>C04264</t>
+  </si>
+  <si>
+    <t>C04265</t>
+  </si>
+  <si>
+    <t>C04266</t>
+  </si>
+  <si>
+    <t>C04268</t>
+  </si>
+  <si>
+    <t>C04269</t>
+  </si>
+  <si>
+    <t>C04270</t>
+  </si>
+  <si>
+    <t>C04272</t>
+  </si>
+  <si>
+    <t>C04274</t>
+  </si>
+  <si>
+    <t>C04276</t>
+  </si>
+  <si>
+    <t>C04277</t>
+  </si>
+  <si>
+    <t>C04278</t>
+  </si>
+  <si>
+    <t>C04279</t>
+  </si>
+  <si>
+    <t>C04280</t>
+  </si>
+  <si>
+    <t>C04282</t>
+  </si>
+  <si>
+    <t>C04283</t>
+  </si>
+  <si>
+    <t>C04292</t>
+  </si>
+  <si>
+    <t>C04293</t>
+  </si>
+  <si>
+    <t>C04294</t>
+  </si>
+  <si>
+    <t>C04295</t>
+  </si>
+  <si>
+    <t>C04296</t>
+  </si>
+  <si>
+    <t>C04297</t>
+  </si>
+  <si>
+    <t>C04298</t>
+  </si>
+  <si>
+    <t>C04299</t>
+  </si>
+  <si>
+    <t>C04329</t>
+  </si>
+  <si>
+    <t>C04330</t>
+  </si>
+  <si>
+    <t>C04331</t>
+  </si>
+  <si>
+    <t>C04332</t>
+  </si>
+  <si>
+    <t>C04346</t>
+  </si>
+  <si>
+    <t>C04347</t>
+  </si>
+  <si>
+    <t>C04349</t>
+  </si>
+  <si>
+    <t>C04350</t>
+  </si>
+  <si>
+    <t>C04351</t>
+  </si>
+  <si>
+    <t>C04352</t>
+  </si>
+  <si>
+    <t>C04380</t>
+  </si>
+  <si>
+    <t>C04435</t>
+  </si>
+  <si>
+    <t>C04436</t>
+  </si>
+  <si>
+    <t>C04437</t>
+  </si>
+  <si>
+    <t>C04438</t>
+  </si>
+  <si>
+    <t>C04439</t>
+  </si>
+  <si>
+    <t>C04459</t>
+  </si>
+  <si>
+    <t>C04461</t>
+  </si>
+  <si>
+    <t>C04472W</t>
+  </si>
+  <si>
+    <t>C04475</t>
+  </si>
+  <si>
+    <t>C04476</t>
+  </si>
+  <si>
+    <t>C04477</t>
+  </si>
+  <si>
+    <t>C04527</t>
+  </si>
+  <si>
+    <t>C04528</t>
+  </si>
+  <si>
+    <t>C04529</t>
+  </si>
+  <si>
+    <t>C04530</t>
+  </si>
+  <si>
+    <t>C04531</t>
+  </si>
+  <si>
+    <t>C04532</t>
+  </si>
+  <si>
+    <t>C04538</t>
+  </si>
+  <si>
+    <t>C04539</t>
+  </si>
+  <si>
+    <t>C04629</t>
+  </si>
+  <si>
+    <t>C04630</t>
+  </si>
+  <si>
+    <t>C04631</t>
+  </si>
+  <si>
+    <t>C04646</t>
+  </si>
+  <si>
+    <t>C04647</t>
+  </si>
+  <si>
+    <t>C04648</t>
+  </si>
+  <si>
+    <t>C04658</t>
+  </si>
+  <si>
+    <t>C04659</t>
+  </si>
+  <si>
+    <t>C04660</t>
+  </si>
+  <si>
+    <t>C04661</t>
+  </si>
+  <si>
+    <t>C04665</t>
+  </si>
+  <si>
+    <t>C04666</t>
+  </si>
+  <si>
+    <t>C04667</t>
+  </si>
+  <si>
+    <t>C04668</t>
+  </si>
+  <si>
+    <t>C04669</t>
+  </si>
+  <si>
+    <t>C04670</t>
+  </si>
+  <si>
+    <t>C04671</t>
+  </si>
+  <si>
+    <t>C04683W</t>
+  </si>
+  <si>
+    <t>C04684W</t>
+  </si>
+  <si>
+    <t>C04685W</t>
+  </si>
+  <si>
+    <t>C04686W</t>
+  </si>
+  <si>
+    <t>C04745</t>
+  </si>
+  <si>
+    <t>C04756</t>
+  </si>
+  <si>
+    <t>C04757</t>
+  </si>
+  <si>
+    <t>C04766</t>
+  </si>
+  <si>
+    <t>C04767</t>
+  </si>
+  <si>
+    <t>C04768</t>
+  </si>
+  <si>
+    <t>C04769</t>
+  </si>
+  <si>
+    <t>C04770</t>
+  </si>
+  <si>
+    <t>C04771</t>
+  </si>
+  <si>
+    <t>C04772</t>
+  </si>
+  <si>
+    <t>C04773</t>
+  </si>
+  <si>
+    <t>C04816</t>
+  </si>
+  <si>
+    <t>C04861W</t>
+  </si>
+  <si>
+    <t>C04862W</t>
+  </si>
+  <si>
+    <t>C04863W</t>
+  </si>
+  <si>
+    <t>C04869</t>
+  </si>
+  <si>
+    <t>C04901W</t>
+  </si>
+  <si>
+    <t>C04904W</t>
+  </si>
+  <si>
+    <t>C04905W</t>
+  </si>
+  <si>
+    <t>C04942</t>
+  </si>
+  <si>
+    <t>C04943</t>
+  </si>
+  <si>
+    <t>C04944</t>
+  </si>
+  <si>
+    <t>C04945</t>
+  </si>
+  <si>
+    <t>C04955</t>
+  </si>
+  <si>
+    <t>C04956</t>
+  </si>
+  <si>
+    <t>C04957</t>
+  </si>
+  <si>
+    <t>C04958</t>
+  </si>
+  <si>
+    <t>C04959</t>
+  </si>
+  <si>
+    <t>C04960W</t>
+  </si>
+  <si>
+    <t>C04961W</t>
+  </si>
+  <si>
+    <t>C04971</t>
+  </si>
+  <si>
+    <t>C04972</t>
+  </si>
+  <si>
+    <t>C04973</t>
+  </si>
+  <si>
+    <t>C04974</t>
+  </si>
+  <si>
+    <t>C04975</t>
+  </si>
+  <si>
+    <t>C04976</t>
+  </si>
+  <si>
+    <t>C04977</t>
+  </si>
+  <si>
+    <t>C04982</t>
+  </si>
+  <si>
+    <t>C04983</t>
+  </si>
+  <si>
+    <t>C04984</t>
+  </si>
+  <si>
+    <t>C04985</t>
+  </si>
+  <si>
+    <t>C05097</t>
+  </si>
+  <si>
+    <t>C05107</t>
+  </si>
+  <si>
+    <t>C05108</t>
+  </si>
+  <si>
+    <t>C05109</t>
+  </si>
+  <si>
+    <t>C05110</t>
+  </si>
+  <si>
+    <t>C05112</t>
+  </si>
+  <si>
+    <t>C05113</t>
+  </si>
+  <si>
+    <t>C05182</t>
+  </si>
+  <si>
+    <t>C05183</t>
+  </si>
+  <si>
+    <t>C05184</t>
+  </si>
+  <si>
+    <t>C05189</t>
+  </si>
+  <si>
+    <t>C05227</t>
+  </si>
+  <si>
+    <t>C05228</t>
+  </si>
+  <si>
+    <t>C05229</t>
+  </si>
+  <si>
+    <t>C05245</t>
+  </si>
+  <si>
+    <t>C05246</t>
+  </si>
+  <si>
+    <t>C05247</t>
+  </si>
+  <si>
+    <t>C05248</t>
+  </si>
+  <si>
+    <t>C05391</t>
+  </si>
+  <si>
+    <t>C01619</t>
+  </si>
+  <si>
+    <t>C01735</t>
+  </si>
+  <si>
+    <t>C03247</t>
+  </si>
+  <si>
+    <t>C03799</t>
+  </si>
+  <si>
+    <t>C03805</t>
+  </si>
+  <si>
+    <t>C04275</t>
+  </si>
+  <si>
+    <t>C04300</t>
+  </si>
+  <si>
+    <t>C04348</t>
+  </si>
+  <si>
+    <t>C04817</t>
+  </si>
+  <si>
+    <t>C04902W</t>
+  </si>
+  <si>
     <t>C01615</t>
   </si>
   <si>
-    <t>C01618</t>
-  </si>
-  <si>
-    <t>C01721</t>
-  </si>
-  <si>
-    <t>C01722</t>
-  </si>
-  <si>
-    <t>C01731</t>
+    <t>C01632</t>
+  </si>
+  <si>
+    <t>C01633</t>
+  </si>
+  <si>
+    <t>C01730</t>
+  </si>
+  <si>
+    <t>C04267</t>
+  </si>
+  <si>
+    <t>C04381</t>
+  </si>
+  <si>
+    <t>C04383</t>
+  </si>
+  <si>
+    <t>C01379</t>
+  </si>
+  <si>
+    <t>C04573W</t>
+  </si>
+  <si>
+    <t>C01616</t>
+  </si>
+  <si>
+    <t>C01627</t>
+  </si>
+  <si>
+    <t>C01631</t>
+  </si>
+  <si>
+    <t>C02366</t>
+  </si>
+  <si>
+    <t>C01624</t>
+  </si>
+  <si>
+    <t>C03802</t>
+  </si>
+  <si>
+    <t>C02012</t>
+  </si>
+  <si>
+    <t>C01732</t>
   </si>
   <si>
     <t>C01733</t>
-  </si>
-  <si>
-    <t>C01735</t>
-  </si>
-  <si>
-    <t>C01954</t>
-  </si>
-  <si>
-    <t>C01956</t>
-  </si>
-  <si>
-    <t>C01957</t>
-  </si>
-  <si>
-    <t>C02012</t>
-  </si>
-  <si>
-    <t>C02014</t>
-  </si>
-  <si>
-    <t>C02089</t>
-  </si>
-  <si>
-    <t>C02090</t>
-  </si>
-  <si>
-    <t>C02091</t>
-  </si>
-  <si>
-    <t>C02092</t>
-  </si>
-  <si>
-    <t>C02304</t>
-  </si>
-  <si>
-    <t>C02363</t>
-  </si>
-  <si>
-    <t>C02366</t>
-  </si>
-  <si>
-    <t>C02368</t>
-  </si>
-  <si>
-    <t>C02502</t>
-  </si>
-  <si>
-    <t>C02605</t>
-  </si>
-  <si>
-    <t>C02611</t>
-  </si>
-  <si>
-    <t>C02612</t>
-  </si>
-  <si>
-    <t>C02613</t>
-  </si>
-  <si>
-    <t>C02752</t>
-  </si>
-  <si>
-    <t>C02918</t>
-  </si>
-  <si>
-    <t>C03076</t>
-  </si>
-  <si>
-    <t>C03102</t>
-  </si>
-  <si>
-    <t>C03213</t>
-  </si>
-  <si>
-    <t>C03215</t>
-  </si>
-  <si>
-    <t>C03216</t>
-  </si>
-  <si>
-    <t>C03217</t>
-  </si>
-  <si>
-    <t>C03246</t>
-  </si>
-  <si>
-    <t>C03247</t>
-  </si>
-  <si>
-    <t>C03249</t>
-  </si>
-  <si>
-    <t>C03250</t>
-  </si>
-  <si>
-    <t>C03320</t>
-  </si>
-  <si>
-    <t>C03321</t>
-  </si>
-  <si>
-    <t>C03405</t>
-  </si>
-  <si>
-    <t>C03406</t>
-  </si>
-  <si>
-    <t>C03407</t>
-  </si>
-  <si>
-    <t>C03409</t>
-  </si>
-  <si>
-    <t>C03411</t>
-  </si>
-  <si>
-    <t>C03457</t>
-  </si>
-  <si>
-    <t>C03458</t>
-  </si>
-  <si>
-    <t>C03459</t>
-  </si>
-  <si>
-    <t>C03460</t>
-  </si>
-  <si>
-    <t>C03588</t>
-  </si>
-  <si>
-    <t>C03589</t>
-  </si>
-  <si>
-    <t>C03590</t>
-  </si>
-  <si>
-    <t>C03591</t>
-  </si>
-  <si>
-    <t>C03592</t>
-  </si>
-  <si>
-    <t>C03593</t>
-  </si>
-  <si>
-    <t>C03594</t>
-  </si>
-  <si>
-    <t>C03595</t>
-  </si>
-  <si>
-    <t>C03596</t>
-  </si>
-  <si>
-    <t>C03597</t>
-  </si>
-  <si>
-    <t>C03598</t>
-  </si>
-  <si>
-    <t>C03599</t>
-  </si>
-  <si>
-    <t>C03600</t>
-  </si>
-  <si>
-    <t>C03601</t>
-  </si>
-  <si>
-    <t>C03602</t>
-  </si>
-  <si>
-    <t>C03603</t>
-  </si>
-  <si>
-    <t>C03665</t>
-  </si>
-  <si>
-    <t>C03666</t>
-  </si>
-  <si>
-    <t>C03667</t>
-  </si>
-  <si>
-    <t>C03668</t>
-  </si>
-  <si>
-    <t>C03669</t>
-  </si>
-  <si>
-    <t>C03721</t>
-  </si>
-  <si>
-    <t>C03722</t>
-  </si>
-  <si>
-    <t>C03723</t>
-  </si>
-  <si>
-    <t>C03724</t>
-  </si>
-  <si>
-    <t>C03725</t>
-  </si>
-  <si>
-    <t>C03727</t>
-  </si>
-  <si>
-    <t>C03760</t>
-  </si>
-  <si>
-    <t>C03761</t>
-  </si>
-  <si>
-    <t>C03762</t>
-  </si>
-  <si>
-    <t>C03763</t>
-  </si>
-  <si>
-    <t>C03764</t>
-  </si>
-  <si>
-    <t>C03765</t>
-  </si>
-  <si>
-    <t>C03766</t>
-  </si>
-  <si>
-    <t>C03767</t>
-  </si>
-  <si>
-    <t>C03768</t>
-  </si>
-  <si>
-    <t>C03769</t>
-  </si>
-  <si>
-    <t>C03770</t>
-  </si>
-  <si>
-    <t>C03771</t>
-  </si>
-  <si>
-    <t>C03772</t>
-  </si>
-  <si>
-    <t>C03773</t>
-  </si>
-  <si>
-    <t>C03774</t>
-  </si>
-  <si>
-    <t>C03775</t>
-  </si>
-  <si>
-    <t>C03776</t>
-  </si>
-  <si>
-    <t>C03777</t>
-  </si>
-  <si>
-    <t>C03778</t>
-  </si>
-  <si>
-    <t>C03779</t>
-  </si>
-  <si>
-    <t>C03780</t>
-  </si>
-  <si>
-    <t>C03781</t>
-  </si>
-  <si>
-    <t>C03782</t>
-  </si>
-  <si>
-    <t>C03783</t>
-  </si>
-  <si>
-    <t>C03784</t>
-  </si>
-  <si>
-    <t>C03786</t>
-  </si>
-  <si>
-    <t>C03787</t>
-  </si>
-  <si>
-    <t>C03788</t>
-  </si>
-  <si>
-    <t>C03789</t>
-  </si>
-  <si>
-    <t>C03790</t>
-  </si>
-  <si>
-    <t>C03791</t>
-  </si>
-  <si>
-    <t>C03792</t>
-  </si>
-  <si>
-    <t>C03793</t>
-  </si>
-  <si>
-    <t>C03794</t>
-  </si>
-  <si>
-    <t>C03795</t>
-  </si>
-  <si>
-    <t>C03796</t>
-  </si>
-  <si>
-    <t>C03797</t>
-  </si>
-  <si>
-    <t>C03798</t>
-  </si>
-  <si>
-    <t>C03800</t>
-  </si>
-  <si>
-    <t>C03801</t>
-  </si>
-  <si>
-    <t>C03803</t>
-  </si>
-  <si>
-    <t>C03804</t>
-  </si>
-  <si>
-    <t>C03805</t>
-  </si>
-  <si>
-    <t>C03806</t>
-  </si>
-  <si>
-    <t>C03807</t>
-  </si>
-  <si>
-    <t>C03808</t>
-  </si>
-  <si>
-    <t>C03809</t>
-  </si>
-  <si>
-    <t>C03810</t>
-  </si>
-  <si>
-    <t>C03811</t>
-  </si>
-  <si>
-    <t>C03812</t>
-  </si>
-  <si>
-    <t>C03813</t>
-  </si>
-  <si>
-    <t>C03814</t>
-  </si>
-  <si>
-    <t>C03815</t>
-  </si>
-  <si>
-    <t>C03816</t>
-  </si>
-  <si>
-    <t>C03817</t>
-  </si>
-  <si>
-    <t>C03818</t>
-  </si>
-  <si>
-    <t>C03819</t>
-  </si>
-  <si>
-    <t>C03820</t>
-  </si>
-  <si>
-    <t>C03821</t>
-  </si>
-  <si>
-    <t>C03822</t>
-  </si>
-  <si>
-    <t>C03823</t>
-  </si>
-  <si>
-    <t>C03824</t>
-  </si>
-  <si>
-    <t>C03825</t>
-  </si>
-  <si>
-    <t>C03826</t>
-  </si>
-  <si>
-    <t>C03827</t>
-  </si>
-  <si>
-    <t>C03828</t>
-  </si>
-  <si>
-    <t>C03829</t>
-  </si>
-  <si>
-    <t>C03830</t>
-  </si>
-  <si>
-    <t>C03831</t>
-  </si>
-  <si>
-    <t>C03874</t>
-  </si>
-  <si>
-    <t>C03875</t>
-  </si>
-  <si>
-    <t>C03876</t>
-  </si>
-  <si>
-    <t>C03894</t>
-  </si>
-  <si>
-    <t>C03921</t>
-  </si>
-  <si>
-    <t>C03922</t>
-  </si>
-  <si>
-    <t>C03923</t>
-  </si>
-  <si>
-    <t>C03924</t>
-  </si>
-  <si>
-    <t>C03925</t>
-  </si>
-  <si>
-    <t>C03930</t>
-  </si>
-  <si>
-    <t>C03931</t>
-  </si>
-  <si>
-    <t>C03932</t>
-  </si>
-  <si>
-    <t>C03959</t>
-  </si>
-  <si>
-    <t>C03960</t>
-  </si>
-  <si>
-    <t>C03961</t>
-  </si>
-  <si>
-    <t>C03962</t>
-  </si>
-  <si>
-    <t>C03963</t>
-  </si>
-  <si>
-    <t>C03964</t>
-  </si>
-  <si>
-    <t>C03965</t>
-  </si>
-  <si>
-    <t>C03966</t>
-  </si>
-  <si>
-    <t>C03967</t>
-  </si>
-  <si>
-    <t>C04007</t>
-  </si>
-  <si>
-    <t>C04008</t>
-  </si>
-  <si>
-    <t>C04009</t>
-  </si>
-  <si>
-    <t>C04010</t>
-  </si>
-  <si>
-    <t>C04011</t>
-  </si>
-  <si>
-    <t>C04012</t>
-  </si>
-  <si>
-    <t>C04260</t>
-  </si>
-  <si>
-    <t>C04262</t>
-  </si>
-  <si>
-    <t>C04263</t>
-  </si>
-  <si>
-    <t>C04264</t>
-  </si>
-  <si>
-    <t>C04265</t>
-  </si>
-  <si>
-    <t>C04267</t>
-  </si>
-  <si>
-    <t>C04268</t>
-  </si>
-  <si>
-    <t>C04269</t>
-  </si>
-  <si>
-    <t>C04270</t>
-  </si>
-  <si>
-    <t>C04272</t>
-  </si>
-  <si>
-    <t>C04274</t>
-  </si>
-  <si>
-    <t>C04275</t>
-  </si>
-  <si>
-    <t>C04276</t>
-  </si>
-  <si>
-    <t>C04277</t>
-  </si>
-  <si>
-    <t>C04278</t>
-  </si>
-  <si>
-    <t>C04279</t>
-  </si>
-  <si>
-    <t>C04280</t>
-  </si>
-  <si>
-    <t>C04282</t>
-  </si>
-  <si>
-    <t>C04283</t>
-  </si>
-  <si>
-    <t>C04292</t>
-  </si>
-  <si>
-    <t>C04293</t>
-  </si>
-  <si>
-    <t>C04294</t>
-  </si>
-  <si>
-    <t>C04295</t>
-  </si>
-  <si>
-    <t>C04296</t>
-  </si>
-  <si>
-    <t>C04297</t>
-  </si>
-  <si>
-    <t>C04298</t>
-  </si>
-  <si>
-    <t>C04299</t>
-  </si>
-  <si>
-    <t>C04300</t>
-  </si>
-  <si>
-    <t>C04329</t>
-  </si>
-  <si>
-    <t>C04330</t>
-  </si>
-  <si>
-    <t>C04331</t>
-  </si>
-  <si>
-    <t>C04332</t>
-  </si>
-  <si>
-    <t>C04346</t>
-  </si>
-  <si>
-    <t>C04347</t>
-  </si>
-  <si>
-    <t>C04348</t>
-  </si>
-  <si>
-    <t>C04349</t>
-  </si>
-  <si>
-    <t>C04351</t>
-  </si>
-  <si>
-    <t>C04352</t>
-  </si>
-  <si>
-    <t>C04380</t>
-  </si>
-  <si>
-    <t>C04383</t>
-  </si>
-  <si>
-    <t>C04435</t>
-  </si>
-  <si>
-    <t>C04436</t>
-  </si>
-  <si>
-    <t>C04437</t>
-  </si>
-  <si>
-    <t>C04438</t>
-  </si>
-  <si>
-    <t>C04439</t>
-  </si>
-  <si>
-    <t>C04459</t>
-  </si>
-  <si>
-    <t>C04461</t>
-  </si>
-  <si>
-    <t>C04472W</t>
-  </si>
-  <si>
-    <t>C04475</t>
-  </si>
-  <si>
-    <t>C04476</t>
-  </si>
-  <si>
-    <t>C04477</t>
-  </si>
-  <si>
-    <t>C04527</t>
-  </si>
-  <si>
-    <t>C04529</t>
-  </si>
-  <si>
-    <t>C04530</t>
-  </si>
-  <si>
-    <t>C04531</t>
-  </si>
-  <si>
-    <t>C04532</t>
-  </si>
-  <si>
-    <t>C04538</t>
-  </si>
-  <si>
-    <t>C04539</t>
-  </si>
-  <si>
-    <t>C04629</t>
-  </si>
-  <si>
-    <t>C04630</t>
-  </si>
-  <si>
-    <t>C04631</t>
-  </si>
-  <si>
-    <t>C04646</t>
-  </si>
-  <si>
-    <t>C04647</t>
-  </si>
-  <si>
-    <t>C04648</t>
-  </si>
-  <si>
-    <t>C04658</t>
-  </si>
-  <si>
-    <t>C04659</t>
-  </si>
-  <si>
-    <t>C04660</t>
-  </si>
-  <si>
-    <t>C04661</t>
-  </si>
-  <si>
-    <t>C04665</t>
-  </si>
-  <si>
-    <t>C04666</t>
-  </si>
-  <si>
-    <t>C04667</t>
-  </si>
-  <si>
-    <t>C04668</t>
-  </si>
-  <si>
-    <t>C04669</t>
-  </si>
-  <si>
-    <t>C04670</t>
-  </si>
-  <si>
-    <t>C04671</t>
-  </si>
-  <si>
-    <t>C04683W</t>
-  </si>
-  <si>
-    <t>C04684W</t>
-  </si>
-  <si>
-    <t>C04685W</t>
-  </si>
-  <si>
-    <t>C04686W</t>
-  </si>
-  <si>
-    <t>C04745</t>
-  </si>
-  <si>
-    <t>C04756</t>
-  </si>
-  <si>
-    <t>C04757</t>
-  </si>
-  <si>
-    <t>C04766</t>
-  </si>
-  <si>
-    <t>C04767</t>
-  </si>
-  <si>
-    <t>C04768</t>
-  </si>
-  <si>
-    <t>C04769</t>
-  </si>
-  <si>
-    <t>C04770</t>
-  </si>
-  <si>
-    <t>C04771</t>
-  </si>
-  <si>
-    <t>C04772</t>
-  </si>
-  <si>
-    <t>C04773</t>
-  </si>
-  <si>
-    <t>C04816</t>
-  </si>
-  <si>
-    <t>C04861W</t>
-  </si>
-  <si>
-    <t>C04862W</t>
-  </si>
-  <si>
-    <t>C04863W</t>
-  </si>
-  <si>
-    <t>C04869</t>
-  </si>
-  <si>
-    <t>C04901W</t>
-  </si>
-  <si>
-    <t>C04902W</t>
-  </si>
-  <si>
-    <t>C04904W</t>
-  </si>
-  <si>
-    <t>C04905W</t>
-  </si>
-  <si>
-    <t>C04942</t>
-  </si>
-  <si>
-    <t>C04943</t>
-  </si>
-  <si>
-    <t>C04944</t>
-  </si>
-  <si>
-    <t>C04945</t>
-  </si>
-  <si>
-    <t>C04955</t>
-  </si>
-  <si>
-    <t>C04956</t>
-  </si>
-  <si>
-    <t>C04957</t>
-  </si>
-  <si>
-    <t>C04958</t>
-  </si>
-  <si>
-    <t>C04959</t>
-  </si>
-  <si>
-    <t>C04960W</t>
-  </si>
-  <si>
-    <t>C04961W</t>
-  </si>
-  <si>
-    <t>C04971</t>
-  </si>
-  <si>
-    <t>C04972</t>
-  </si>
-  <si>
-    <t>C04973</t>
-  </si>
-  <si>
-    <t>C04974</t>
-  </si>
-  <si>
-    <t>C04975</t>
-  </si>
-  <si>
-    <t>C04976</t>
-  </si>
-  <si>
-    <t>C04977</t>
-  </si>
-  <si>
-    <t>C04982</t>
-  </si>
-  <si>
-    <t>C04983</t>
-  </si>
-  <si>
-    <t>C04984</t>
-  </si>
-  <si>
-    <t>C04985</t>
-  </si>
-  <si>
-    <t>C05097</t>
-  </si>
-  <si>
-    <t>C05109</t>
-  </si>
-  <si>
-    <t>C05110</t>
-  </si>
-  <si>
-    <t>C05112</t>
-  </si>
-  <si>
-    <t>C05113</t>
-  </si>
-  <si>
-    <t>C05182</t>
-  </si>
-  <si>
-    <t>C05183</t>
-  </si>
-  <si>
-    <t>C05184</t>
-  </si>
-  <si>
-    <t>C05189</t>
-  </si>
-  <si>
-    <t>C05227</t>
-  </si>
-  <si>
-    <t>C05228</t>
-  </si>
-  <si>
-    <t>C05229</t>
-  </si>
-  <si>
-    <t>C05245</t>
-  </si>
-  <si>
-    <t>C05246</t>
-  </si>
-  <si>
-    <t>C05247</t>
-  </si>
-  <si>
-    <t>C05248</t>
-  </si>
-  <si>
-    <t>75294</t>
-  </si>
-  <si>
-    <t>C00315R1</t>
-  </si>
-  <si>
-    <t>C00362R1</t>
-  </si>
-  <si>
-    <t>C01616</t>
-  </si>
-  <si>
-    <t>C01621</t>
-  </si>
-  <si>
-    <t>C01625</t>
-  </si>
-  <si>
-    <t>C01627</t>
-  </si>
-  <si>
-    <t>C01632</t>
-  </si>
-  <si>
-    <t>C01633</t>
-  </si>
-  <si>
-    <t>C02362</t>
-  </si>
-  <si>
-    <t>C02504</t>
-  </si>
-  <si>
-    <t>C03408</t>
-  </si>
-  <si>
-    <t>C03726</t>
-  </si>
-  <si>
-    <t>C04266</t>
-  </si>
-  <si>
-    <t>C04350</t>
-  </si>
-  <si>
-    <t>C04528</t>
-  </si>
-  <si>
-    <t>C04817</t>
-  </si>
-  <si>
-    <t>C05108</t>
-  </si>
-  <si>
-    <t>C01729</t>
-  </si>
-  <si>
-    <t>C01732</t>
-  </si>
-  <si>
-    <t>C03799</t>
-  </si>
-  <si>
-    <t>C04381</t>
-  </si>
-  <si>
-    <t>C04573W</t>
-  </si>
-  <si>
-    <t>C01626</t>
-  </si>
-  <si>
-    <t>C01628</t>
-  </si>
-  <si>
-    <t>C01730</t>
-  </si>
-  <si>
-    <t>C01624</t>
-  </si>
-  <si>
-    <t>C02365</t>
-  </si>
-  <si>
-    <t>C03785</t>
-  </si>
-  <si>
-    <t>C03802</t>
-  </si>
-  <si>
-    <t>C03955W</t>
-  </si>
-  <si>
-    <t>C05107</t>
-  </si>
-  <si>
-    <t>C01379</t>
-  </si>
-  <si>
-    <t>C01619</t>
-  </si>
-  <si>
-    <t>C01631</t>
-  </si>
-  <si>
-    <t>C05391</t>
   </si>
   <si>
     <t>sku</t>
@@ -1541,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>332.05</v>
+        <v>340.1</v>
       </c>
       <c r="C2">
-        <v>48.95</v>
+        <v>40.9</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44.9</v>
+        <v>46.95</v>
       </c>
       <c r="C3">
-        <v>9.1</v>
+        <v>7.05</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.15</v>
+        <v>13.9</v>
       </c>
       <c r="C4">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.65</v>
+        <v>20.8</v>
       </c>
       <c r="C5">
-        <v>6.35</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.3</v>
+        <v>4.95</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>6.05</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1643,10 +1643,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.4</v>
+        <v>6.35</v>
       </c>
       <c r="C8">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1660,10 +1660,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.75</v>
+        <v>13.25</v>
       </c>
       <c r="C9">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.050000000000001</v>
+        <v>3.050000000000001</v>
       </c>
       <c r="C10">
-        <v>10.95</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1694,10 +1694,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.45</v>
+        <v>9.6</v>
       </c>
       <c r="C11">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.7</v>
+        <v>23.05</v>
       </c>
       <c r="C13">
-        <v>6.3</v>
+        <v>5.95</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>17.65</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>7.35</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.15</v>
+        <v>32.55</v>
       </c>
       <c r="C16">
-        <v>9.85</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1796,10 +1796,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>45.1</v>
+        <v>43.95</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>14.05</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.3</v>
+        <v>37.3</v>
       </c>
       <c r="C18">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95</v>
+        <v>23.9</v>
       </c>
       <c r="C19">
-        <v>4.05</v>
+        <v>5.1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.050000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="C20">
-        <v>4.95</v>
+        <v>0.4</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.8</v>
+        <v>8.85</v>
       </c>
       <c r="C21">
-        <v>14.2</v>
+        <v>5.15</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1881,10 +1881,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.8</v>
+        <v>40.85</v>
       </c>
       <c r="C22">
-        <v>2.2</v>
+        <v>13.15</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.7</v>
+        <v>10.65</v>
       </c>
       <c r="C23">
-        <v>9.300000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.2</v>
+        <v>16.55</v>
       </c>
       <c r="C24">
-        <v>1.8</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.35</v>
+        <v>12.5</v>
       </c>
       <c r="C25">
-        <v>7.65</v>
+        <v>1.5</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1949,10 +1949,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>131.5</v>
+        <v>22.3</v>
       </c>
       <c r="C26">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>68.95</v>
+        <v>132.35</v>
       </c>
       <c r="C27">
-        <v>3.05</v>
+        <v>6.65</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>95.8</v>
+        <v>68.55</v>
       </c>
       <c r="C28">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>14.7</v>
+        <v>52.45</v>
       </c>
       <c r="C29">
-        <v>0.3</v>
+        <v>3.55</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.25</v>
+        <v>94.45</v>
       </c>
       <c r="C30">
-        <v>0.25</v>
+        <v>7.55</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2034,10 +2034,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31.05</v>
+        <v>62.8</v>
       </c>
       <c r="C31">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2068,16 +2068,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-3.85</v>
+        <v>14.85</v>
       </c>
       <c r="C33">
-        <v>3.85</v>
+        <v>0.15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2085,16 +2085,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.45</v>
+        <v>43.25</v>
       </c>
       <c r="C34">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2102,10 +2102,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2</v>
+        <v>-1.1</v>
       </c>
       <c r="C35">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2119,10 +2119,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>20.8</v>
+        <v>88.8</v>
       </c>
       <c r="C36">
-        <v>5.2</v>
+        <v>0.2</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>20.2</v>
+        <v>32.05</v>
       </c>
       <c r="C37">
-        <v>4.8</v>
+        <v>2.95</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2153,16 +2153,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22.85</v>
+        <v>-0.9</v>
       </c>
       <c r="C38">
-        <v>5.15</v>
+        <v>0.9</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2170,10 +2170,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.25</v>
+        <v>-1.2</v>
       </c>
       <c r="C39">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -2187,16 +2187,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>53.8</v>
+        <v>-5.4</v>
       </c>
       <c r="C40">
-        <v>12.2</v>
+        <v>5.4</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2204,10 +2204,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>67</v>
+        <v>21.2</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>154.45</v>
+        <v>20.75</v>
       </c>
       <c r="C42">
-        <v>12.55</v>
+        <v>4.25</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>81.3</v>
+        <v>23.35</v>
       </c>
       <c r="C43">
-        <v>5.7</v>
+        <v>4.65</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>66.7</v>
+        <v>54.85</v>
       </c>
       <c r="C44">
-        <v>5.3</v>
+        <v>11.15</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -2272,10 +2272,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1908.25</v>
+        <v>67.3</v>
       </c>
       <c r="C45">
-        <v>541.75</v>
+        <v>5.7</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.1</v>
+        <v>153.6</v>
       </c>
       <c r="C46">
-        <v>1.1</v>
+        <v>13.4</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2306,16 +2306,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.6</v>
+        <v>80.5</v>
       </c>
       <c r="C47">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2323,10 +2323,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>33.75</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C48">
-        <v>2.25</v>
+        <v>5.85</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -2340,10 +2340,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>100.8</v>
+        <v>1905.7</v>
       </c>
       <c r="C49">
-        <v>6.2</v>
+        <v>544.3</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -2357,16 +2357,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.9</v>
+        <v>66</v>
       </c>
       <c r="C50">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2374,16 +2374,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>52.95</v>
+        <v>-1.5</v>
       </c>
       <c r="C51">
-        <v>4.05</v>
+        <v>1.5</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2391,16 +2391,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>42.15</v>
+        <v>-0.15</v>
       </c>
       <c r="C52">
-        <v>2.85</v>
+        <v>0.15</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2408,10 +2408,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>50.25</v>
+        <v>34.5</v>
       </c>
       <c r="C53">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1019.4</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C54">
-        <v>31.6</v>
+        <v>7.35</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-5.1</v>
+        <v>103</v>
       </c>
       <c r="C55">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2459,16 +2459,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>65.65000000000001</v>
+        <v>-2.3</v>
       </c>
       <c r="C56">
-        <v>5.35</v>
+        <v>2.3</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2476,16 +2476,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-7</v>
+        <v>53.45</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>3.55</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2493,16 +2493,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-4.3</v>
+        <v>42.5</v>
       </c>
       <c r="C58">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2510,10 +2510,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>43.45</v>
+        <v>49.95</v>
       </c>
       <c r="C59">
-        <v>1.55</v>
+        <v>6.05</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>52.7</v>
+        <v>1017.6</v>
       </c>
       <c r="C60">
-        <v>5.3</v>
+        <v>33.4</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -2544,16 +2544,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>42.45</v>
+        <v>-4.8</v>
       </c>
       <c r="C61">
-        <v>2.55</v>
+        <v>4.8</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2561,10 +2561,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>28.9</v>
+        <v>65.45</v>
       </c>
       <c r="C62">
-        <v>1.1</v>
+        <v>5.55</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>26.3</v>
+        <v>-7.15</v>
       </c>
       <c r="C63">
-        <v>2.7</v>
+        <v>7.15</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2595,16 +2595,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>28.25</v>
+        <v>-4.2</v>
       </c>
       <c r="C64">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2612,10 +2612,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>20.6</v>
+        <v>43.3</v>
       </c>
       <c r="C65">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>81.84999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="C66">
-        <v>6.15</v>
+        <v>5.9</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>62.75</v>
+        <v>41.6</v>
       </c>
       <c r="C67">
-        <v>11.25</v>
+        <v>3.4</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2663,10 +2663,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>43.45</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>3.55</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>20.05</v>
+        <v>27.5</v>
       </c>
       <c r="C69">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>19.95</v>
+        <v>20.35</v>
       </c>
       <c r="C70">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>94.2</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="C71">
-        <v>9.800000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>205.7</v>
+        <v>62.75</v>
       </c>
       <c r="C72">
-        <v>9.300000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>84.34999999999999</v>
+        <v>42.3</v>
       </c>
       <c r="C73">
-        <v>14.65</v>
+        <v>4.7</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2765,10 +2765,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>92.5</v>
+        <v>20.2</v>
       </c>
       <c r="C74">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2782,10 +2782,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>94.2</v>
+        <v>19.3</v>
       </c>
       <c r="C75">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2799,10 +2799,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>81.55</v>
+        <v>17.05</v>
       </c>
       <c r="C76">
-        <v>14.45</v>
+        <v>2.95</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>91.59999999999999</v>
+        <v>95.25</v>
       </c>
       <c r="C77">
-        <v>16.4</v>
+        <v>8.75</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>47.1</v>
+        <v>205.45</v>
       </c>
       <c r="C78">
-        <v>7.9</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -2850,10 +2850,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>88.3</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="C79">
-        <v>9.699999999999999</v>
+        <v>14.65</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -2867,10 +2867,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>76.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="C80">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2884,10 +2884,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>86.05</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="C81">
-        <v>9.949999999999999</v>
+        <v>6.65</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>101.45</v>
+        <v>82.8</v>
       </c>
       <c r="C82">
-        <v>9.550000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>87.84999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C83">
-        <v>8.15</v>
+        <v>15.4</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2935,10 +2935,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>66.59999999999999</v>
+        <v>48.05</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>6.95</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>274.25</v>
+        <v>88.8</v>
       </c>
       <c r="C85">
-        <v>49.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2969,10 +2969,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>86.84999999999999</v>
+        <v>75.45</v>
       </c>
       <c r="C86">
-        <v>21.15</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>222.65</v>
+        <v>85.5</v>
       </c>
       <c r="C87">
-        <v>12.35</v>
+        <v>10.5</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>160.5</v>
+        <v>101.4</v>
       </c>
       <c r="C88">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>139.85</v>
+        <v>88.55</v>
       </c>
       <c r="C89">
-        <v>17.15</v>
+        <v>7.45</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>191.8</v>
+        <v>67.55</v>
       </c>
       <c r="C90">
-        <v>14.2</v>
+        <v>3.45</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>177.05</v>
+        <v>266.7</v>
       </c>
       <c r="C91">
-        <v>13.95</v>
+        <v>57.3</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>142.35</v>
+        <v>87.5</v>
       </c>
       <c r="C92">
-        <v>13.65</v>
+        <v>20.5</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>257</v>
+        <v>221.1</v>
       </c>
       <c r="C93">
-        <v>37</v>
+        <v>13.9</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>123.6</v>
+        <v>160.25</v>
       </c>
       <c r="C94">
-        <v>18.4</v>
+        <v>13.75</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -3122,10 +3122,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>122.1</v>
+        <v>138.55</v>
       </c>
       <c r="C95">
-        <v>8.9</v>
+        <v>18.45</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>105.55</v>
+        <v>190.8</v>
       </c>
       <c r="C96">
-        <v>18.45</v>
+        <v>15.2</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>144.5</v>
+        <v>175.15</v>
       </c>
       <c r="C97">
-        <v>22.5</v>
+        <v>15.85</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>69.75</v>
+        <v>140.65</v>
       </c>
       <c r="C98">
-        <v>4.25</v>
+        <v>15.35</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>108.6</v>
+        <v>253.3</v>
       </c>
       <c r="C99">
-        <v>6.4</v>
+        <v>40.7</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>118.9</v>
+        <v>125.4</v>
       </c>
       <c r="C100">
-        <v>9.1</v>
+        <v>16.6</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -3224,16 +3224,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-14.95</v>
+        <v>123.1</v>
       </c>
       <c r="C101">
-        <v>14.95</v>
+        <v>7.9</v>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3241,16 +3241,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-1.1</v>
+        <v>105.7</v>
       </c>
       <c r="C102">
-        <v>1.1</v>
+        <v>18.3</v>
       </c>
       <c r="D102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3258,16 +3258,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-12.75</v>
+        <v>142.95</v>
       </c>
       <c r="C103">
-        <v>12.75</v>
+        <v>24.05</v>
       </c>
       <c r="D103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3275,16 +3275,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>36.1</v>
+        <v>69.75</v>
       </c>
       <c r="C104">
-        <v>57.9</v>
+        <v>4.25</v>
       </c>
       <c r="D104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3292,10 +3292,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>137.7</v>
+        <v>109.15</v>
       </c>
       <c r="C105">
-        <v>67.3</v>
+        <v>5.85</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -3309,10 +3309,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>142.95</v>
+        <v>118.35</v>
       </c>
       <c r="C106">
-        <v>85.05</v>
+        <v>9.65</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -3326,16 +3326,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>177.4</v>
+        <v>-15.2</v>
       </c>
       <c r="C107">
-        <v>62.6</v>
+        <v>15.2</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3343,16 +3343,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>136.45</v>
+        <v>-1.35</v>
       </c>
       <c r="C108">
-        <v>57.55</v>
+        <v>1.35</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3360,16 +3360,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>73.45</v>
+        <v>-1.8</v>
       </c>
       <c r="C109">
-        <v>43.55</v>
+        <v>1.8</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3377,16 +3377,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>377.95</v>
+        <v>-13.65</v>
       </c>
       <c r="C110">
-        <v>67.05</v>
+        <v>13.65</v>
       </c>
       <c r="D110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3394,16 +3394,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>259.1</v>
+        <v>37.7</v>
       </c>
       <c r="C111">
-        <v>95.90000000000001</v>
+        <v>56.3</v>
       </c>
       <c r="D111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3411,10 +3411,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>221.95</v>
+        <v>138.5</v>
       </c>
       <c r="C112">
-        <v>123.05</v>
+        <v>66.5</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -3428,10 +3428,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>200.85</v>
+        <v>143.7</v>
       </c>
       <c r="C113">
-        <v>96.15000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>244.35</v>
+        <v>176.8</v>
       </c>
       <c r="C114">
-        <v>98.65000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -3462,16 +3462,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-86.84999999999999</v>
+        <v>138.1</v>
       </c>
       <c r="C115">
-        <v>86.84999999999999</v>
+        <v>55.9</v>
       </c>
       <c r="D115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3479,10 +3479,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>167.3</v>
+        <v>72.3</v>
       </c>
       <c r="C116">
-        <v>146.7</v>
+        <v>44.7</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>309.45</v>
+        <v>383.95</v>
       </c>
       <c r="C117">
-        <v>74.55</v>
+        <v>61.05</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>160.25</v>
+        <v>258.75</v>
       </c>
       <c r="C118">
-        <v>77.75</v>
+        <v>96.25</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>210.3</v>
+        <v>232.85</v>
       </c>
       <c r="C119">
-        <v>68.7</v>
+        <v>112.15</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>177.6</v>
+        <v>200.5</v>
       </c>
       <c r="C120">
-        <v>78.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -3564,10 +3564,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>296.5</v>
+        <v>245.15</v>
       </c>
       <c r="C121">
-        <v>106.5</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.7</v>
+        <v>-95.40000000000001</v>
       </c>
       <c r="C122">
-        <v>17.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3598,10 +3598,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>23.8</v>
+        <v>160.4</v>
       </c>
       <c r="C123">
-        <v>13.2</v>
+        <v>153.6</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -3615,10 +3615,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>40.2</v>
+        <v>312.05</v>
       </c>
       <c r="C124">
-        <v>15.8</v>
+        <v>71.95</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>38.1</v>
+        <v>157.6</v>
       </c>
       <c r="C125">
-        <v>14.9</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>66.65000000000001</v>
+        <v>210.15</v>
       </c>
       <c r="C126">
-        <v>17.35</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>855.7</v>
+        <v>179.25</v>
       </c>
       <c r="C127">
-        <v>13.3</v>
+        <v>76.75</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -3683,10 +3683,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>103.4</v>
+        <v>300.1</v>
       </c>
       <c r="C128">
-        <v>1.6</v>
+        <v>102.9</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>12.5</v>
+        <v>21.8</v>
       </c>
       <c r="C129">
-        <v>2.5</v>
+        <v>16.2</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>13.6</v>
+        <v>23.55</v>
       </c>
       <c r="C130">
-        <v>1.4</v>
+        <v>13.45</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -3734,10 +3734,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>13.1</v>
+        <v>39.7</v>
       </c>
       <c r="C131">
-        <v>1.9</v>
+        <v>16.3</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>12.55</v>
+        <v>35.55</v>
       </c>
       <c r="C132">
-        <v>2.45</v>
+        <v>17.45</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>10.1</v>
+        <v>67.55</v>
       </c>
       <c r="C133">
-        <v>4.9</v>
+        <v>16.45</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12.2</v>
+        <v>856.05</v>
       </c>
       <c r="C134">
-        <v>2.8</v>
+        <v>12.95</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>11.5</v>
+        <v>103.25</v>
       </c>
       <c r="C135">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -3819,10 +3819,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>9.5</v>
+        <v>14.45</v>
       </c>
       <c r="C136">
-        <v>4.5</v>
+        <v>0.55</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>12.25</v>
+        <v>12.8</v>
       </c>
       <c r="C137">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.45</v>
+        <v>13.55</v>
       </c>
       <c r="C138">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10.15</v>
+        <v>12.85</v>
       </c>
       <c r="C139">
-        <v>3.85</v>
+        <v>2.15</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -3887,10 +3887,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>14.15</v>
+        <v>12.7</v>
       </c>
       <c r="C140">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12.85</v>
+        <v>10.25</v>
       </c>
       <c r="C141">
-        <v>1.15</v>
+        <v>4.75</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>13.95</v>
+        <v>12.55</v>
       </c>
       <c r="C142">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -3938,10 +3938,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4.9</v>
+        <v>11.55</v>
       </c>
       <c r="C143">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>13.15</v>
+        <v>9.6</v>
       </c>
       <c r="C144">
-        <v>1.85</v>
+        <v>4.4</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -3972,10 +3972,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>29.1</v>
+        <v>11.55</v>
       </c>
       <c r="C145">
-        <v>0.9</v>
+        <v>3.45</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>28.35</v>
+        <v>11.5</v>
       </c>
       <c r="C146">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -4006,10 +4006,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>28.9</v>
+        <v>10.25</v>
       </c>
       <c r="C147">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -4023,10 +4023,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>12.75</v>
+        <v>13.55</v>
       </c>
       <c r="C148">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>19.2</v>
+        <v>12.1</v>
       </c>
       <c r="C149">
-        <v>8.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -4057,10 +4057,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>25.35</v>
+        <v>14.25</v>
       </c>
       <c r="C150">
-        <v>16.65</v>
+        <v>1.75</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -4074,10 +4074,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>33.7</v>
+        <v>4.65</v>
       </c>
       <c r="C151">
-        <v>20.3</v>
+        <v>2.35</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -4091,16 +4091,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>13.35</v>
+        <v>13.3</v>
       </c>
       <c r="C152">
-        <v>14.65</v>
+        <v>1.7</v>
       </c>
       <c r="D152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4108,16 +4108,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>11.8</v>
+        <v>28.25</v>
       </c>
       <c r="C153">
-        <v>30.2</v>
+        <v>1.75</v>
       </c>
       <c r="D153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4125,16 +4125,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5.5</v>
+        <v>28.8</v>
       </c>
       <c r="C154">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="D154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4142,10 +4142,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>22.75</v>
+        <v>12.5</v>
       </c>
       <c r="C155">
-        <v>16.25</v>
+        <v>1.5</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
@@ -4159,10 +4159,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>29.75</v>
+        <v>19.55</v>
       </c>
       <c r="C156">
-        <v>12.25</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -4176,16 +4176,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>12.05</v>
+        <v>25.4</v>
       </c>
       <c r="C157">
-        <v>15.95</v>
+        <v>16.6</v>
       </c>
       <c r="D157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4193,10 +4193,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>15.8</v>
+        <v>34</v>
       </c>
       <c r="C158">
-        <v>11.2</v>
+        <v>20</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -4210,16 +4210,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C159">
-        <v>11.1</v>
+        <v>14</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4227,16 +4227,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>14.15</v>
+        <v>11.4</v>
       </c>
       <c r="C160">
-        <v>10.85</v>
+        <v>30.6</v>
       </c>
       <c r="D160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4244,16 +4244,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>20.5</v>
+        <v>5.55</v>
       </c>
       <c r="C161">
-        <v>9.5</v>
+        <v>6.45</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4261,10 +4261,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>19.45</v>
+        <v>23.2</v>
       </c>
       <c r="C162">
-        <v>8.550000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -4278,16 +4278,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>4.85</v>
+        <v>29.9</v>
       </c>
       <c r="C163">
-        <v>5.15</v>
+        <v>12.1</v>
       </c>
       <c r="D163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4295,16 +4295,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="C164">
-        <v>6.6</v>
+        <v>15.9</v>
       </c>
       <c r="D164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4312,10 +4312,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>30.7</v>
+        <v>14.75</v>
       </c>
       <c r="C165">
-        <v>8.300000000000001</v>
+        <v>12.25</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>24.6</v>
+        <v>13.05</v>
       </c>
       <c r="C166">
-        <v>7.4</v>
+        <v>11.95</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -4346,10 +4346,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>96.65000000000001</v>
+        <v>13.35</v>
       </c>
       <c r="C167">
-        <v>4.35</v>
+        <v>11.65</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -4363,10 +4363,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6.55</v>
+        <v>21.2</v>
       </c>
       <c r="C168">
-        <v>4.45</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -4380,10 +4380,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>23.2</v>
+        <v>19.35</v>
       </c>
       <c r="C169">
-        <v>5.8</v>
+        <v>8.65</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -4397,16 +4397,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>23.45</v>
+        <v>4</v>
       </c>
       <c r="C170">
-        <v>4.55</v>
+        <v>6</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4414,10 +4414,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>8.15</v>
+        <v>11.2</v>
       </c>
       <c r="C171">
-        <v>2.85</v>
+        <v>6.8</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -4431,10 +4431,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8.449999999999999</v>
+        <v>30.2</v>
       </c>
       <c r="C172">
-        <v>5.55</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -4448,10 +4448,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>180.6</v>
+        <v>24.1</v>
       </c>
       <c r="C173">
-        <v>18.4</v>
+        <v>7.9</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -4465,10 +4465,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>88.8</v>
+        <v>97.25</v>
       </c>
       <c r="C174">
-        <v>11.2</v>
+        <v>3.75</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -4482,10 +4482,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>92.75</v>
+        <v>6.7</v>
       </c>
       <c r="C175">
-        <v>18.25</v>
+        <v>4.3</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>55.65</v>
+        <v>22.8</v>
       </c>
       <c r="C176">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
@@ -4516,10 +4516,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>58.1</v>
+        <v>22.75</v>
       </c>
       <c r="C177">
-        <v>6.9</v>
+        <v>5.25</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -4533,10 +4533,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>39.65</v>
+        <v>7.5</v>
       </c>
       <c r="C178">
-        <v>4.35</v>
+        <v>3.5</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -4550,10 +4550,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>44.75</v>
+        <v>8.9</v>
       </c>
       <c r="C179">
-        <v>6.25</v>
+        <v>5.1</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
@@ -4567,10 +4567,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>43.15</v>
+        <v>180.3</v>
       </c>
       <c r="C180">
-        <v>1.85</v>
+        <v>18.7</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -4584,10 +4584,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>83.84999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C181">
-        <v>4.15</v>
+        <v>11.1</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
@@ -4601,10 +4601,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>166.65</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C182">
-        <v>9.35</v>
+        <v>18.15</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -4618,10 +4618,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>41.9</v>
+        <v>56.25</v>
       </c>
       <c r="C183">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -4635,10 +4635,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>58.15</v>
+        <v>58</v>
       </c>
       <c r="C184">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -4652,16 +4652,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-3.6</v>
+        <v>39</v>
       </c>
       <c r="C185">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="D185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4669,10 +4669,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1371.1</v>
+        <v>46.45</v>
       </c>
       <c r="C186">
-        <v>16.9</v>
+        <v>4.55</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>564.55</v>
+        <v>42.95</v>
       </c>
       <c r="C187">
-        <v>3.45</v>
+        <v>2.05</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>708.35</v>
+        <v>83.95</v>
       </c>
       <c r="C188">
-        <v>7.65</v>
+        <v>4.05</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1292.35</v>
+        <v>166.5</v>
       </c>
       <c r="C189">
-        <v>8.65</v>
+        <v>9.5</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -4737,10 +4737,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>87.7</v>
+        <v>41.65</v>
       </c>
       <c r="C190">
-        <v>13.3</v>
+        <v>3.35</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -4754,10 +4754,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>34.65</v>
+        <v>56.9</v>
       </c>
       <c r="C191">
-        <v>8.35</v>
+        <v>3.1</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -4771,16 +4771,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>38.55</v>
+        <v>-0.15</v>
       </c>
       <c r="C192">
-        <v>5.45</v>
+        <v>0.15</v>
       </c>
       <c r="D192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4788,16 +4788,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>141</v>
+        <v>-4.2</v>
       </c>
       <c r="C193">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="D193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4805,10 +4805,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>186.25</v>
+        <v>1370.95</v>
       </c>
       <c r="C194">
-        <v>14.75</v>
+        <v>17.05</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
@@ -4822,10 +4822,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>188.65</v>
+        <v>564.65</v>
       </c>
       <c r="C195">
-        <v>15.35</v>
+        <v>3.35</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
@@ -4839,10 +4839,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>198.35</v>
+        <v>709.1</v>
       </c>
       <c r="C196">
-        <v>10.65</v>
+        <v>6.9</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
@@ -4856,10 +4856,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1186.9</v>
+        <v>1291</v>
       </c>
       <c r="C197">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
@@ -4873,10 +4873,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>190.8</v>
+        <v>87.05</v>
       </c>
       <c r="C198">
-        <v>16.2</v>
+        <v>13.95</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>207.8</v>
+        <v>34.05</v>
       </c>
       <c r="C199">
-        <v>2.2</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -4907,10 +4907,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>55.6</v>
+        <v>38.55</v>
       </c>
       <c r="C200">
-        <v>3.4</v>
+        <v>5.45</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -4924,10 +4924,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>36.85</v>
+        <v>144.3</v>
       </c>
       <c r="C201">
-        <v>4.15</v>
+        <v>19.7</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -4941,10 +4941,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>26.75</v>
+        <v>185.9</v>
       </c>
       <c r="C202">
-        <v>2.25</v>
+        <v>15.1</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
@@ -4958,10 +4958,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>27.3</v>
+        <v>188.85</v>
       </c>
       <c r="C203">
-        <v>1.7</v>
+        <v>15.15</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>40.35</v>
+        <v>197.15</v>
       </c>
       <c r="C204">
-        <v>3.65</v>
+        <v>11.85</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>29</v>
+        <v>1185.75</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>12.25</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
@@ -5009,16 +5009,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-1.8</v>
+        <v>189.85</v>
       </c>
       <c r="C206">
-        <v>1.8</v>
+        <v>17.15</v>
       </c>
       <c r="D206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5026,10 +5026,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>79.84999999999999</v>
+        <v>207.75</v>
       </c>
       <c r="C207">
-        <v>8.15</v>
+        <v>2.25</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -5043,16 +5043,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-2.05</v>
+        <v>55.95</v>
       </c>
       <c r="C208">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="D208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5060,16 +5060,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-1.5</v>
+        <v>37.35</v>
       </c>
       <c r="C209">
-        <v>1.5</v>
+        <v>3.65</v>
       </c>
       <c r="D209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5077,16 +5077,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-2.55</v>
+        <v>26.7</v>
       </c>
       <c r="C210">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="D210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5094,16 +5094,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-1.55</v>
+        <v>27.3</v>
       </c>
       <c r="C211">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="D211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5111,10 +5111,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>52.7</v>
+        <v>41.15</v>
       </c>
       <c r="C212">
-        <v>4.3</v>
+        <v>2.85</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
@@ -5128,16 +5128,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>21.65</v>
+        <v>-0.55</v>
       </c>
       <c r="C213">
-        <v>5.35</v>
+        <v>0.55</v>
       </c>
       <c r="D213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5145,16 +5145,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>81.8</v>
+        <v>-1.65</v>
       </c>
       <c r="C214">
-        <v>6.2</v>
+        <v>1.65</v>
       </c>
       <c r="D214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5162,10 +5162,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>41.7</v>
+        <v>78.8</v>
       </c>
       <c r="C215">
-        <v>2.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -5179,16 +5179,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>27.45</v>
+        <v>-2.5</v>
       </c>
       <c r="C216">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="D216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5196,16 +5196,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>38.25</v>
+        <v>-1</v>
       </c>
       <c r="C217">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="D217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5213,16 +5213,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>38.85</v>
+        <v>-2.55</v>
       </c>
       <c r="C218">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="D218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5230,16 +5230,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.55</v>
+        <v>52.75</v>
       </c>
       <c r="C219">
-        <v>0.55</v>
+        <v>4.25</v>
       </c>
       <c r="D219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5247,10 +5247,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>64.7</v>
+        <v>22.6</v>
       </c>
       <c r="C220">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>55.35</v>
+        <v>82.8</v>
       </c>
       <c r="C221">
-        <v>4.65</v>
+        <v>5.2</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>42.55</v>
+        <v>41.55</v>
       </c>
       <c r="C222">
         <v>2.45</v>
@@ -5298,10 +5298,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>35.95</v>
+        <v>27.8</v>
       </c>
       <c r="C223">
-        <v>7.05</v>
+        <v>1.2</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -5315,16 +5315,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-12.6</v>
+        <v>37.85</v>
       </c>
       <c r="C224">
-        <v>12.6</v>
+        <v>2.15</v>
       </c>
       <c r="D224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5332,10 +5332,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>24.6</v>
+        <v>37.9</v>
       </c>
       <c r="C225">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
@@ -5349,16 +5349,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>23.65</v>
+        <v>-0.55</v>
       </c>
       <c r="C226">
-        <v>3.35</v>
+        <v>0.55</v>
       </c>
       <c r="D226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5366,10 +5366,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>26.75</v>
+        <v>63.75</v>
       </c>
       <c r="C227">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
@@ -5383,10 +5383,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>40.25</v>
+        <v>55.5</v>
       </c>
       <c r="C228">
-        <v>6.75</v>
+        <v>4.5</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
@@ -5400,10 +5400,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>76.7</v>
+        <v>43</v>
       </c>
       <c r="C229">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="D229" t="b">
         <v>0</v>
@@ -5417,16 +5417,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-4.05</v>
+        <v>37.15</v>
       </c>
       <c r="C230">
-        <v>4.05</v>
+        <v>5.85</v>
       </c>
       <c r="D230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5434,10 +5434,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-7.25</v>
+        <v>-12.75</v>
       </c>
       <c r="C231">
-        <v>7.25</v>
+        <v>12.75</v>
       </c>
       <c r="D231" t="b">
         <v>1</v>
@@ -5451,10 +5451,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>112.2</v>
+        <v>24.8</v>
       </c>
       <c r="C232">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
@@ -5468,10 +5468,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>58.6</v>
+        <v>23.25</v>
       </c>
       <c r="C233">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
@@ -5485,16 +5485,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-1.5</v>
+        <v>40.55</v>
       </c>
       <c r="C234">
-        <v>1.5</v>
+        <v>6.45</v>
       </c>
       <c r="D234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5502,10 +5502,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>99.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C235">
-        <v>4.8</v>
+        <v>11.6</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
@@ -5519,10 +5519,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-1.15</v>
+        <v>-4.35</v>
       </c>
       <c r="C236">
-        <v>1.15</v>
+        <v>4.35</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -5536,16 +5536,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>56.2</v>
+        <v>-7.75</v>
       </c>
       <c r="C237">
-        <v>2.8</v>
+        <v>7.75</v>
       </c>
       <c r="D237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5553,10 +5553,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>21.15</v>
+        <v>112.1</v>
       </c>
       <c r="C238">
-        <v>1.85</v>
+        <v>4.9</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
@@ -5570,10 +5570,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>10.5</v>
+        <v>58.45</v>
       </c>
       <c r="C239">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
@@ -5587,10 +5587,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>63.8</v>
+        <v>99.25</v>
       </c>
       <c r="C240">
-        <v>7.2</v>
+        <v>4.75</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>40.35</v>
+        <v>85.25</v>
       </c>
       <c r="C241">
-        <v>2.65</v>
+        <v>4.75</v>
       </c>
       <c r="D241" t="b">
         <v>0</v>
@@ -5621,16 +5621,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>54.9</v>
+        <v>-1.2</v>
       </c>
       <c r="C242">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="D242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5638,10 +5638,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>86</v>
+        <v>56.05</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
@@ -5655,10 +5655,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>39.65</v>
+        <v>21.85</v>
       </c>
       <c r="C244">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="D244" t="b">
         <v>0</v>
@@ -5672,10 +5672,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>85.84999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="C245">
-        <v>4.15</v>
+        <v>6.7</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
@@ -5689,16 +5689,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-4.4</v>
+        <v>40.25</v>
       </c>
       <c r="C246">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="D246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5706,16 +5706,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-8.15</v>
+        <v>55.5</v>
       </c>
       <c r="C247">
-        <v>8.15</v>
+        <v>4.5</v>
       </c>
       <c r="D247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5723,10 +5723,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>196.4</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C248">
-        <v>8.6</v>
+        <v>3.4</v>
       </c>
       <c r="D248" t="b">
         <v>0</v>
@@ -5740,10 +5740,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>170.65</v>
+        <v>38.45</v>
       </c>
       <c r="C249">
-        <v>5.35</v>
+        <v>4.55</v>
       </c>
       <c r="D249" t="b">
         <v>0</v>
@@ -5757,10 +5757,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>144.1</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="C250">
-        <v>4.9</v>
+        <v>2.85</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
@@ -5774,16 +5774,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>156.95</v>
+        <v>-4.55</v>
       </c>
       <c r="C251">
-        <v>7.05</v>
+        <v>4.55</v>
       </c>
       <c r="D251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5791,16 +5791,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>86.45</v>
+        <v>-8.1</v>
       </c>
       <c r="C252">
-        <v>3.55</v>
+        <v>8.1</v>
       </c>
       <c r="D252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5808,10 +5808,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>146.6</v>
+        <v>197.4</v>
       </c>
       <c r="C253">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="D253" t="b">
         <v>0</v>
@@ -5825,10 +5825,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>100.45</v>
+        <v>170.75</v>
       </c>
       <c r="C254">
-        <v>4.55</v>
+        <v>5.25</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
@@ -5842,10 +5842,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>85.09999999999999</v>
+        <v>144</v>
       </c>
       <c r="C255">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="D255" t="b">
         <v>0</v>
@@ -5859,10 +5859,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>99</v>
+        <v>156.65</v>
       </c>
       <c r="C256">
-        <v>6</v>
+        <v>7.35</v>
       </c>
       <c r="D256" t="b">
         <v>0</v>
@@ -5876,10 +5876,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>118.7</v>
+        <v>55.05</v>
       </c>
       <c r="C257">
-        <v>11.3</v>
+        <v>2.95</v>
       </c>
       <c r="D257" t="b">
         <v>0</v>
@@ -5893,10 +5893,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>115.4</v>
+        <v>86.5</v>
       </c>
       <c r="C258">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D258" t="b">
         <v>0</v>
@@ -5910,10 +5910,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>388.05</v>
+        <v>147.05</v>
       </c>
       <c r="C259">
-        <v>15.95</v>
+        <v>2.95</v>
       </c>
       <c r="D259" t="b">
         <v>0</v>
@@ -5927,10 +5927,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>336.05</v>
+        <v>100.45</v>
       </c>
       <c r="C260">
-        <v>6.95</v>
+        <v>4.55</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
@@ -5944,10 +5944,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>30.5</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="C261">
-        <v>14.5</v>
+        <v>3.15</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
@@ -5961,10 +5961,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>40</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C262">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D262" t="b">
         <v>0</v>
@@ -5978,10 +5978,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>42.9</v>
+        <v>118.95</v>
       </c>
       <c r="C263">
-        <v>2.1</v>
+        <v>11.05</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
@@ -5995,10 +5995,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>44.95</v>
+        <v>115.3</v>
       </c>
       <c r="C264">
-        <v>7.05</v>
+        <v>3.7</v>
       </c>
       <c r="D264" t="b">
         <v>0</v>
@@ -6012,10 +6012,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>42.3</v>
+        <v>386.25</v>
       </c>
       <c r="C265">
-        <v>2.7</v>
+        <v>17.75</v>
       </c>
       <c r="D265" t="b">
         <v>0</v>
@@ -6029,10 +6029,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>37.95</v>
+        <v>336.2</v>
       </c>
       <c r="C266">
-        <v>5.05</v>
+        <v>6.8</v>
       </c>
       <c r="D266" t="b">
         <v>0</v>
@@ -6046,10 +6046,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>80.34999999999999</v>
+        <v>31.15</v>
       </c>
       <c r="C267">
-        <v>8.65</v>
+        <v>13.85</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
@@ -6063,10 +6063,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>39.25</v>
+        <v>40.5</v>
       </c>
       <c r="C268">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="D268" t="b">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>24.75</v>
+        <v>42.65</v>
       </c>
       <c r="C269">
-        <v>4.25</v>
+        <v>2.35</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>23</v>
+        <v>43.55</v>
       </c>
       <c r="C270">
-        <v>4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D270" t="b">
         <v>0</v>
@@ -6114,10 +6114,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>48.1</v>
+        <v>42.4</v>
       </c>
       <c r="C271">
-        <v>6.9</v>
+        <v>2.6</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
@@ -6131,10 +6131,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>27.3</v>
+        <v>37.55</v>
       </c>
       <c r="C272">
-        <v>1.7</v>
+        <v>5.45</v>
       </c>
       <c r="D272" t="b">
         <v>0</v>
@@ -6148,16 +6148,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-3.95</v>
+        <v>79.3</v>
       </c>
       <c r="C273">
-        <v>3.95</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6165,10 +6165,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>33.75</v>
+        <v>38.85</v>
       </c>
       <c r="C274">
-        <v>8.25</v>
+        <v>5.15</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
@@ -6182,16 +6182,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-10.8</v>
+        <v>25.2</v>
       </c>
       <c r="C275">
-        <v>10.8</v>
+        <v>3.8</v>
       </c>
       <c r="D275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6199,16 +6199,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-8.65</v>
+        <v>23.7</v>
       </c>
       <c r="C276">
-        <v>8.65</v>
+        <v>3.3</v>
       </c>
       <c r="D276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6216,16 +6216,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-4.65</v>
+        <v>47.85</v>
       </c>
       <c r="C277">
-        <v>4.65</v>
+        <v>7.15</v>
       </c>
       <c r="D277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6233,16 +6233,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-6.35</v>
+        <v>27.45</v>
       </c>
       <c r="C278">
-        <v>6.35</v>
+        <v>1.55</v>
       </c>
       <c r="D278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6250,16 +6250,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>350.5</v>
+        <v>-3.65</v>
       </c>
       <c r="C279">
-        <v>177.5</v>
+        <v>3.65</v>
       </c>
       <c r="D279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6267,10 +6267,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>59</v>
+        <v>35.3</v>
       </c>
       <c r="C280">
-        <v>15</v>
+        <v>6.7</v>
       </c>
       <c r="D280" t="b">
         <v>0</v>
@@ -6284,16 +6284,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>32.05</v>
+        <v>-9.85</v>
       </c>
       <c r="C281">
-        <v>7.95</v>
+        <v>9.85</v>
       </c>
       <c r="D281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E281">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6301,16 +6301,16 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>83.3</v>
+        <v>-8.25</v>
       </c>
       <c r="C282">
-        <v>3.7</v>
+        <v>8.25</v>
       </c>
       <c r="D282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6318,16 +6318,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>110.8</v>
+        <v>-5.15</v>
       </c>
       <c r="C283">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
       <c r="D283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6335,16 +6335,16 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>84.40000000000001</v>
+        <v>-6.55</v>
       </c>
       <c r="C284">
-        <v>3.6</v>
+        <v>6.55</v>
       </c>
       <c r="D284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6352,10 +6352,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>139.85</v>
+        <v>352.8</v>
       </c>
       <c r="C285">
-        <v>8.15</v>
+        <v>175.2</v>
       </c>
       <c r="D285" t="b">
         <v>0</v>
@@ -6369,10 +6369,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>83.55</v>
+        <v>58.2</v>
       </c>
       <c r="C286">
-        <v>3.45</v>
+        <v>15.8</v>
       </c>
       <c r="D286" t="b">
         <v>0</v>
@@ -6386,10 +6386,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>70.34999999999999</v>
+        <v>33.65</v>
       </c>
       <c r="C287">
-        <v>11.65</v>
+        <v>6.35</v>
       </c>
       <c r="D287" t="b">
         <v>0</v>
@@ -6403,10 +6403,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>51.3</v>
+        <v>83.45</v>
       </c>
       <c r="C288">
-        <v>7.7</v>
+        <v>3.55</v>
       </c>
       <c r="D288" t="b">
         <v>0</v>
@@ -6420,10 +6420,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>77.15000000000001</v>
+        <v>110.2</v>
       </c>
       <c r="C289">
-        <v>15.85</v>
+        <v>5.8</v>
       </c>
       <c r="D289" t="b">
         <v>0</v>
@@ -6437,16 +6437,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-26.3</v>
+        <v>85.2</v>
       </c>
       <c r="C290">
-        <v>26.3</v>
+        <v>2.8</v>
       </c>
       <c r="D290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6454,16 +6454,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-8.75</v>
+        <v>141.1</v>
       </c>
       <c r="C291">
-        <v>8.75</v>
+        <v>6.9</v>
       </c>
       <c r="D291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6471,16 +6471,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-9.550000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C292">
-        <v>9.550000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="D292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6488,16 +6488,16 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>-12.3</v>
+        <v>70.45</v>
       </c>
       <c r="C293">
-        <v>12.3</v>
+        <v>11.55</v>
       </c>
       <c r="D293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6505,10 +6505,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>696.1</v>
+        <v>51.4</v>
       </c>
       <c r="C294">
-        <v>53.9</v>
+        <v>7.6</v>
       </c>
       <c r="D294" t="b">
         <v>0</v>
@@ -6522,16 +6522,16 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-10.25</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="C295">
-        <v>10.25</v>
+        <v>14.65</v>
       </c>
       <c r="D295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6539,10 +6539,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-0.65</v>
+        <v>-23.6</v>
       </c>
       <c r="C296">
-        <v>0.65</v>
+        <v>23.6</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
@@ -6556,10 +6556,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>-2.15</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C297">
-        <v>2.15</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D297" t="b">
         <v>1</v>
@@ -6573,10 +6573,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-1.65</v>
+        <v>-9</v>
       </c>
       <c r="C298">
-        <v>1.65</v>
+        <v>9</v>
       </c>
       <c r="D298" t="b">
         <v>1</v>
@@ -6590,10 +6590,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.45</v>
+        <v>-11.7</v>
       </c>
       <c r="C299">
-        <v>0.45</v>
+        <v>11.7</v>
       </c>
       <c r="D299" t="b">
         <v>1</v>
@@ -6607,16 +6607,16 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>-3</v>
+        <v>693.65</v>
       </c>
       <c r="C300">
-        <v>3</v>
+        <v>56.35</v>
       </c>
       <c r="D300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6624,10 +6624,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>-1.85</v>
+        <v>-10.55</v>
       </c>
       <c r="C301">
-        <v>1.85</v>
+        <v>10.55</v>
       </c>
       <c r="D301" t="b">
         <v>1</v>
@@ -6641,10 +6641,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>-9.550000000000001</v>
+        <v>-2.8</v>
       </c>
       <c r="C302">
-        <v>9.550000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="D302" t="b">
         <v>1</v>
@@ -6658,16 +6658,16 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>138.15</v>
+        <v>-2.35</v>
       </c>
       <c r="C303">
-        <v>9.85</v>
+        <v>2.35</v>
       </c>
       <c r="D303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6675,16 +6675,16 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>139.1</v>
+        <v>-0.55</v>
       </c>
       <c r="C304">
-        <v>9.9</v>
+        <v>0.55</v>
       </c>
       <c r="D304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6692,16 +6692,16 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>142.25</v>
+        <v>-2.95</v>
       </c>
       <c r="C305">
-        <v>7.75</v>
+        <v>2.95</v>
       </c>
       <c r="D305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6709,16 +6709,16 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>136.1</v>
+        <v>-3.05</v>
       </c>
       <c r="C306">
-        <v>9.9</v>
+        <v>3.05</v>
       </c>
       <c r="D306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6726,16 +6726,16 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>144.7</v>
+        <v>-9.35</v>
       </c>
       <c r="C307">
-        <v>4.3</v>
+        <v>9.35</v>
       </c>
       <c r="D307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6743,16 +6743,16 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-9.550000000000001</v>
+        <v>137.2</v>
       </c>
       <c r="C308">
-        <v>9.550000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="D308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6760,16 +6760,16 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>-4.2</v>
+        <v>138.95</v>
       </c>
       <c r="C309">
-        <v>4.2</v>
+        <v>10.05</v>
       </c>
       <c r="D309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6777,16 +6777,16 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>-94.15000000000001</v>
+        <v>142.85</v>
       </c>
       <c r="C310">
-        <v>94.15000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="D310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6794,16 +6794,16 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>-94.3</v>
+        <v>137.1</v>
       </c>
       <c r="C311">
-        <v>94.3</v>
+        <v>8.9</v>
       </c>
       <c r="D311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6811,16 +6811,16 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-62.95</v>
+        <v>145.25</v>
       </c>
       <c r="C312">
-        <v>62.95</v>
+        <v>3.75</v>
       </c>
       <c r="D312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6828,10 +6828,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-47.95</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="C313">
-        <v>47.95</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D313" t="b">
         <v>1</v>
@@ -6845,10 +6845,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-37.15</v>
+        <v>-4.5</v>
       </c>
       <c r="C314">
-        <v>37.15</v>
+        <v>4.5</v>
       </c>
       <c r="D314" t="b">
         <v>1</v>
@@ -6862,10 +6862,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>-56.7</v>
+        <v>-91.65000000000001</v>
       </c>
       <c r="C315">
-        <v>56.7</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="D315" t="b">
         <v>1</v>
@@ -6879,10 +6879,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>-35.8</v>
+        <v>-90.65000000000001</v>
       </c>
       <c r="C316">
-        <v>35.8</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="D316" t="b">
         <v>1</v>
@@ -6896,10 +6896,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-61.8</v>
+        <v>-64.15000000000001</v>
       </c>
       <c r="C317">
-        <v>61.8</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="D317" t="b">
         <v>1</v>
@@ -6913,10 +6913,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>-53.25</v>
+        <v>-47.2</v>
       </c>
       <c r="C318">
-        <v>53.25</v>
+        <v>47.2</v>
       </c>
       <c r="D318" t="b">
         <v>1</v>
@@ -6930,10 +6930,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-32</v>
+        <v>-35.6</v>
       </c>
       <c r="C319">
-        <v>47</v>
+        <v>35.6</v>
       </c>
       <c r="D319" t="b">
         <v>1</v>
@@ -6947,10 +6947,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>-48.3</v>
+        <v>-55.7</v>
       </c>
       <c r="C320">
-        <v>48.3</v>
+        <v>55.7</v>
       </c>
       <c r="D320" t="b">
         <v>1</v>
@@ -6964,10 +6964,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>-29.75</v>
+        <v>-34.95</v>
       </c>
       <c r="C321">
-        <v>29.75</v>
+        <v>34.95</v>
       </c>
       <c r="D321" t="b">
         <v>1</v>
@@ -6981,10 +6981,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>-3.55</v>
+        <v>-60.05</v>
       </c>
       <c r="C322">
-        <v>3.55</v>
+        <v>60.05</v>
       </c>
       <c r="D322" t="b">
         <v>1</v>
@@ -6998,10 +6998,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>-2.8</v>
+        <v>-54.6</v>
       </c>
       <c r="C323">
-        <v>2.8</v>
+        <v>54.6</v>
       </c>
       <c r="D323" t="b">
         <v>1</v>
@@ -7015,10 +7015,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>-3.1</v>
+        <v>-35.95</v>
       </c>
       <c r="C324">
-        <v>3.1</v>
+        <v>50.95</v>
       </c>
       <c r="D324" t="b">
         <v>1</v>
@@ -7032,10 +7032,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-1.55</v>
+        <v>-49.7</v>
       </c>
       <c r="C325">
-        <v>1.55</v>
+        <v>49.7</v>
       </c>
       <c r="D325" t="b">
         <v>1</v>
@@ -7049,10 +7049,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-22.95</v>
+        <v>-27.85</v>
       </c>
       <c r="C326">
-        <v>22.95</v>
+        <v>27.85</v>
       </c>
       <c r="D326" t="b">
         <v>1</v>
@@ -7066,10 +7066,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-10.2</v>
+        <v>-0.6</v>
       </c>
       <c r="C327">
-        <v>10.2</v>
+        <v>0.6</v>
       </c>
       <c r="D327" t="b">
         <v>1</v>
@@ -7083,10 +7083,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>-8.800000000000001</v>
+        <v>-0.75</v>
       </c>
       <c r="C328">
-        <v>8.800000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D328" t="b">
         <v>1</v>
@@ -7100,10 +7100,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-3</v>
+        <v>-4.95</v>
       </c>
       <c r="C329">
-        <v>3</v>
+        <v>4.95</v>
       </c>
       <c r="D329" t="b">
         <v>1</v>
@@ -7117,10 +7117,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>-7.45</v>
+        <v>-3.4</v>
       </c>
       <c r="C330">
-        <v>7.45</v>
+        <v>3.4</v>
       </c>
       <c r="D330" t="b">
         <v>1</v>
@@ -7134,10 +7134,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>-5.95</v>
+        <v>-4.45</v>
       </c>
       <c r="C331">
-        <v>5.95</v>
+        <v>4.45</v>
       </c>
       <c r="D331" t="b">
         <v>1</v>
@@ -7151,10 +7151,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-10.55</v>
+        <v>-1.4</v>
       </c>
       <c r="C332">
-        <v>10.55</v>
+        <v>1.4</v>
       </c>
       <c r="D332" t="b">
         <v>1</v>
@@ -7168,10 +7168,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-80.8</v>
+        <v>-22.6</v>
       </c>
       <c r="C333">
-        <v>80.8</v>
+        <v>22.6</v>
       </c>
       <c r="D333" t="b">
         <v>1</v>
@@ -7185,10 +7185,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-31.35</v>
+        <v>-12.6</v>
       </c>
       <c r="C334">
-        <v>31.35</v>
+        <v>12.6</v>
       </c>
       <c r="D334" t="b">
         <v>1</v>
@@ -7202,10 +7202,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>-22.35</v>
+        <v>-8.6</v>
       </c>
       <c r="C335">
-        <v>22.35</v>
+        <v>8.6</v>
       </c>
       <c r="D335" t="b">
         <v>1</v>
@@ -7219,10 +7219,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>-17.15</v>
+        <v>-3.2</v>
       </c>
       <c r="C336">
-        <v>17.15</v>
+        <v>3.2</v>
       </c>
       <c r="D336" t="b">
         <v>1</v>
@@ -7236,16 +7236,16 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>14.5</v>
+        <v>-7.45</v>
       </c>
       <c r="C337">
-        <v>0.5</v>
+        <v>7.45</v>
       </c>
       <c r="D337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E337">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7253,16 +7253,16 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>53.7</v>
+        <v>-5.85</v>
       </c>
       <c r="C338">
-        <v>2.3</v>
+        <v>5.85</v>
       </c>
       <c r="D338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7270,16 +7270,16 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>63.5</v>
+        <v>-10.05</v>
       </c>
       <c r="C339">
-        <v>2.5</v>
+        <v>10.05</v>
       </c>
       <c r="D339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E339">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7287,16 +7287,16 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>29.8</v>
+        <v>-82.95</v>
       </c>
       <c r="C340">
-        <v>0.2</v>
+        <v>82.95</v>
       </c>
       <c r="D340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7304,16 +7304,16 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>14.9</v>
+        <v>-30.2</v>
       </c>
       <c r="C341">
-        <v>0.1</v>
+        <v>30.2</v>
       </c>
       <c r="D341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E341">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7321,16 +7321,16 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>43.45</v>
+        <v>-23.6</v>
       </c>
       <c r="C342">
-        <v>0.55</v>
+        <v>23.6</v>
       </c>
       <c r="D342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E342">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7338,16 +7338,16 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>59.95</v>
+        <v>-19.55</v>
       </c>
       <c r="C343">
-        <v>0.05</v>
+        <v>19.55</v>
       </c>
       <c r="D343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E343">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7355,16 +7355,16 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>73.7</v>
+        <v>-0.15</v>
       </c>
       <c r="C344">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E344">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7372,16 +7372,16 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>43.6</v>
+        <v>-0.2</v>
       </c>
       <c r="C345">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7389,16 +7389,16 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>66.55</v>
+        <v>-0.4</v>
       </c>
       <c r="C346">
-        <v>2.45</v>
+        <v>0.4</v>
       </c>
       <c r="D346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E346">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7406,10 +7406,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>101.8</v>
+        <v>26.15</v>
       </c>
       <c r="C347">
-        <v>4.2</v>
+        <v>2.85</v>
       </c>
       <c r="D347" t="b">
         <v>0</v>
@@ -7423,10 +7423,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>16.6</v>
+        <v>6.45</v>
       </c>
       <c r="C348">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="D348" t="b">
         <v>0</v>
@@ -7440,16 +7440,16 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>-0.8</v>
+        <v>28.1</v>
       </c>
       <c r="C349">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="D349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7457,10 +7457,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D350" t="b">
         <v>1</v>
@@ -7474,10 +7474,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>85.15000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="C351">
-        <v>4.85</v>
+        <v>1.2</v>
       </c>
       <c r="D351" t="b">
         <v>0</v>
@@ -7491,16 +7491,16 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>55.95</v>
+        <v>-1.3</v>
       </c>
       <c r="C352">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="D352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E352">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7508,10 +7508,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-1.55</v>
+        <v>-1.65</v>
       </c>
       <c r="C353">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="D353" t="b">
         <v>1</v>
@@ -7525,10 +7525,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-1.15</v>
+        <v>-0.8</v>
       </c>
       <c r="C354">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="D354" t="b">
         <v>1</v>
@@ -7542,16 +7542,16 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.95</v>
+        <v>14.75</v>
       </c>
       <c r="C355">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="D355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E355">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7559,16 +7559,16 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.2</v>
+        <v>73.7</v>
       </c>
       <c r="C356">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E356">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7576,10 +7576,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6.4</v>
+        <v>43.5</v>
       </c>
       <c r="C357">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="D357" t="b">
         <v>0</v>
@@ -7593,16 +7593,16 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>10.65</v>
+        <v>-0.25</v>
       </c>
       <c r="C358">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E358">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7610,16 +7610,16 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>-0.25</v>
+        <v>28.4</v>
       </c>
       <c r="C359">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="D359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7627,16 +7627,16 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.85</v>
+        <v>10.75</v>
       </c>
       <c r="C360">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="D360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E360">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7644,7 +7644,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>88.8</v>
+        <v>10.8</v>
       </c>
       <c r="C361">
         <v>0.2</v>
@@ -7661,10 +7661,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="C362">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D362" t="b">
         <v>1</v>
@@ -7678,16 +7678,16 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>14.95</v>
+        <v>-0.15</v>
       </c>
       <c r="C363">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E363">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7695,16 +7695,16 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.3</v>
+        <v>29.9</v>
       </c>
       <c r="C364">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E364">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7712,10 +7712,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>14.25</v>
+        <v>59.65</v>
       </c>
       <c r="C365">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>14.8</v>
+        <v>59.65</v>
       </c>
       <c r="C366">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D366" t="b">
         <v>0</v>
@@ -7746,10 +7746,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.25</v>
+        <v>-0.8</v>
       </c>
       <c r="C367">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="D367" t="b">
         <v>1</v>
@@ -7763,16 +7763,16 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.55</v>
+        <v>14.9</v>
       </c>
       <c r="C368">
-        <v>0.55</v>
+        <v>0.1</v>
       </c>
       <c r="D368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7780,16 +7780,16 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.3</v>
+        <v>14.75</v>
       </c>
       <c r="C369">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E369">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7797,10 +7797,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="C370">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D370" t="b">
         <v>1</v>
@@ -7814,16 +7814,16 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>59.9</v>
+        <v>-0.15</v>
       </c>
       <c r="C371">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E371">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7831,10 +7831,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="C372">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D372" t="b">
         <v>1</v>
